--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,52 +40,55 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>cut</t>
   </si>
   <si>
     <t>empty</t>
@@ -94,15 +97,15 @@
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -121,100 +124,106 @@
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -572,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8116438356164384</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0.9083333333333333</v>
@@ -791,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7368421052631579</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -841,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8302872062663186</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.576271186440678</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8301886792452831</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5294117647058824</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.7885117493472585</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5291005291005291</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5155038759689923</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D13">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.796875</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4899328859060403</v>
+        <v>0.475</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3866666666666667</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3571428571428572</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7758620689655172</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3454545454545455</v>
+        <v>0.375</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7708333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2666666666666667</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.76875</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2420634920634921</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C20">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1367292225201072</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.6976744186046512</v>
+        <v>0.725</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07333333333333333</v>
+        <v>0.2375</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.6785714285714286</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,37 +1650,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01122544434050514</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2114</v>
+        <v>323</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1683,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,63 +1700,87 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00902061855670103</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>280</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.01192394456977119</v>
+      </c>
+      <c r="C25">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>41</v>
+      </c>
+      <c r="E25">
         <v>0.1</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>0.9</v>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>3076</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.65</v>
-      </c>
-      <c r="L24">
-        <v>26</v>
-      </c>
-      <c r="M24">
-        <v>26</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3066</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.6441176470588236</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L25">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M25">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1759,12 +1792,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>0.64</v>
@@ -1790,16 +1823,16 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1811,21 +1844,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5851063829787234</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1837,47 +1870,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5782312925170068</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>124</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5732217573221757</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L30">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M30">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1889,47 +1922,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5538461538461539</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1941,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5393258426966292</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L33">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1967,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4761904761904762</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1993,21 +2026,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4705882352941176</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2019,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.3220338983050847</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2045,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.3205128205128205</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2071,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.3013698630136986</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2097,7 +2130,59 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40">
+        <v>0.296875</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
